--- a/data/reference_files/cell_type_frequency-response_components_mapping.xlsx
+++ b/data/reference_files/cell_type_frequency-response_components_mapping.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Documents\GitHub\hipc-dashboard-pipeline\data\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floratos\Dropbox\Group projects\HIPC\Operations\HIPC Dashboard data prep\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28FAFEC9-C7F4-4819-8772-A70E0A355B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9C31AB0A-8324-4918-9AFD-6016F85EA197}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="1142">
   <si>
     <t>original_annotation</t>
   </si>
@@ -1598,12 +1597,1875 @@
   </si>
   <si>
     <t>CD38+ of transitional B cells</t>
+  </si>
+  <si>
+    <t>CD56dim Natural Killer cells</t>
+  </si>
+  <si>
+    <t>CL_0000623</t>
+  </si>
+  <si>
+    <t>CD56+-</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CD56bright Natural Killer cells</t>
+  </si>
+  <si>
+    <t>NKG2C+ CD57+ CD56dim Natural Killer cells</t>
+  </si>
+  <si>
+    <t>NKG2C+,CD57+,CD56+-</t>
+  </si>
+  <si>
+    <t>PR:000002024,PR:000001440,PR:000001024</t>
+  </si>
+  <si>
+    <t>NKG2C- CD57- CD56dim Natural Killer cells</t>
+  </si>
+  <si>
+    <t>NKG2C-,CD57-,CD56+-</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>NKG2C+CD57+ CD56dim NK cells</t>
+  </si>
+  <si>
+    <t>CD56+-,NKG2C+,CD57+</t>
+  </si>
+  <si>
+    <t>PR:000001024,PR:000002024,PR:000001440</t>
+  </si>
+  <si>
+    <t>CD56bright natural killer cells</t>
+  </si>
+  <si>
+    <t>CD25 CD56bright NK cells</t>
+  </si>
+  <si>
+    <t>CD25+,CD56++</t>
+  </si>
+  <si>
+    <t>PR:000001380,PR:000001024</t>
+  </si>
+  <si>
+    <t>perforin CD56bright NK cells</t>
+  </si>
+  <si>
+    <t>CD56++,PRF1+</t>
+  </si>
+  <si>
+    <t>PR:000001024,PR:000003466</t>
+  </si>
+  <si>
+    <t>perforin CD56dim NK cells</t>
+  </si>
+  <si>
+    <t>CD56+-,PRF1+</t>
+  </si>
+  <si>
+    <t>Granzyme B CD56bright NK cells</t>
+  </si>
+  <si>
+    <t>GZMB+,CD56++</t>
+  </si>
+  <si>
+    <t>PR:000003499,PR:000001024</t>
+  </si>
+  <si>
+    <t>TIGIT CD56dim NK cells</t>
+  </si>
+  <si>
+    <t>TIGIT+,CD56+-</t>
+  </si>
+  <si>
+    <t>PR:000033769,PR:000001024</t>
+  </si>
+  <si>
+    <t>Granzyme B CD56dim NK cells</t>
+  </si>
+  <si>
+    <t>GZMB+,CD56+-</t>
+  </si>
+  <si>
+    <t>CD25 CD56dim NK cells</t>
+  </si>
+  <si>
+    <t>CD25+,CD56+</t>
+  </si>
+  <si>
+    <t>Ksp37 CD56bright NK cells</t>
+  </si>
+  <si>
+    <t>KSP37+,CD56++</t>
+  </si>
+  <si>
+    <t>PR:000007502,PR:000001024</t>
+  </si>
+  <si>
+    <t>CD3+ T cells</t>
+  </si>
+  <si>
+    <t>alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000789</t>
+  </si>
+  <si>
+    <t>CD3+</t>
+  </si>
+  <si>
+    <t>PR:000001020</t>
+  </si>
+  <si>
+    <t>CD68+ monocytes</t>
+  </si>
+  <si>
+    <t>CL_0000576</t>
+  </si>
+  <si>
+    <t>CD68+</t>
+  </si>
+  <si>
+    <t>PR:000002064</t>
+  </si>
+  <si>
+    <t>CD163+ monocytes</t>
+  </si>
+  <si>
+    <t>CD163+</t>
+  </si>
+  <si>
+    <t>PR:000001925</t>
+  </si>
+  <si>
+    <t>CD163+(PR:000001925)</t>
+  </si>
+  <si>
+    <t>CD20+ B cells</t>
+  </si>
+  <si>
+    <t>b cell</t>
+  </si>
+  <si>
+    <t>CL_0000236</t>
+  </si>
+  <si>
+    <t>CD20+</t>
+  </si>
+  <si>
+    <t>PR:000001289</t>
+  </si>
+  <si>
+    <t>CD8+ PD1+ T cells</t>
+  </si>
+  <si>
+    <t>cd8-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000625</t>
+  </si>
+  <si>
+    <t>PD1+</t>
+  </si>
+  <si>
+    <t>PR:000001919</t>
+  </si>
+  <si>
+    <t>PD1+(PR:000001919)</t>
+  </si>
+  <si>
+    <t>plasmablasts of CD45 cells</t>
+  </si>
+  <si>
+    <t>CL_0000980</t>
+  </si>
+  <si>
+    <t>effector CD8 T cells of CD8 T cells</t>
+  </si>
+  <si>
+    <t>effector cd8-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0001050</t>
+  </si>
+  <si>
+    <t>CD45 cells</t>
+  </si>
+  <si>
+    <t>CL_0000738</t>
+  </si>
+  <si>
+    <t>pDCs (plasmacytoid dendritic cells) of CD45 cells</t>
+  </si>
+  <si>
+    <t>plasmacytoid dendritic cell, human</t>
+  </si>
+  <si>
+    <t>CL_0001058</t>
+  </si>
+  <si>
+    <t>IL-1B CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>IL1B+</t>
+  </si>
+  <si>
+    <t>PR:000001136</t>
+  </si>
+  <si>
+    <t>IL1B+(PR:000001136)</t>
+  </si>
+  <si>
+    <t>TNF-alpha CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>TNFA+</t>
+  </si>
+  <si>
+    <t>IL-6 CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>IL6+</t>
+  </si>
+  <si>
+    <t>PR:000001393</t>
+  </si>
+  <si>
+    <t>IL6+(PR:000001393)</t>
+  </si>
+  <si>
+    <t>IL-6+ TNF+ CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>IL6+,TNFA+</t>
+  </si>
+  <si>
+    <t>PR:000001393,PR:000000134</t>
+  </si>
+  <si>
+    <t>MCP-1 CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>MCP1+</t>
+  </si>
+  <si>
+    <t>PR:000002122</t>
+  </si>
+  <si>
+    <t>MCP1+(PR:000002122)</t>
+  </si>
+  <si>
+    <t>pDCs (plasmacytoid dendritic cells)</t>
+  </si>
+  <si>
+    <t>Effector_CD8_T_cells</t>
+  </si>
+  <si>
+    <t>CD45+ CD19+ IgD- CD71+ CD38+ CD20- plasmablasts</t>
+  </si>
+  <si>
+    <t>CD19+,IGD-,CD38+,CD20-,CD71+</t>
+  </si>
+  <si>
+    <t>PR:000001002,PR:000050170,PR:000001408,PR:000001289,PR:000001945</t>
+  </si>
+  <si>
+    <t>CD45+ CD3+ CD8+ T cells</t>
+  </si>
+  <si>
+    <t>CD45+,CD3+</t>
+  </si>
+  <si>
+    <t>PR:P08575,PR:000001020</t>
+  </si>
+  <si>
+    <t>CD45+ CD3+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>cd4-positive, alpha-beta memory t cell</t>
+  </si>
+  <si>
+    <t>CL_0000897</t>
+  </si>
+  <si>
+    <t>CD45+ CD3- CD19- CD14++ CD16- classical monocytes</t>
+  </si>
+  <si>
+    <t>classical monocyte</t>
+  </si>
+  <si>
+    <t>CL_0000860</t>
+  </si>
+  <si>
+    <t>CD45+,CD3-,CD19-,CD14++,CD16-</t>
+  </si>
+  <si>
+    <t>PR:P08575,PR:000001020,PR:000001002,PR:000001889,PR:000001483</t>
+  </si>
+  <si>
+    <t>CD45+ CD3- CD19- CD14++ CD16+ intermediate monocytes</t>
+  </si>
+  <si>
+    <t>intermediate monocyte</t>
+  </si>
+  <si>
+    <t>CL_0002393</t>
+  </si>
+  <si>
+    <t>CD45+,CD3-,CD19-,CD14++,CD16+</t>
+  </si>
+  <si>
+    <t>CD45+ CD3- CD19- CD14+ CD16+ non-classical monocytes</t>
+  </si>
+  <si>
+    <t>non-classical monocyte</t>
+  </si>
+  <si>
+    <t>CL_0000875</t>
+  </si>
+  <si>
+    <t>CD45+,CD3-,CD19-,CD14+,CD16+</t>
+  </si>
+  <si>
+    <t>CD16+ monocyte</t>
+  </si>
+  <si>
+    <t>CD16+</t>
+  </si>
+  <si>
+    <t>CD56+ CD16- NK cells</t>
+  </si>
+  <si>
+    <t>CD56+,CD16-</t>
+  </si>
+  <si>
+    <t>PR:000001024,PR:000001483</t>
+  </si>
+  <si>
+    <t>CD56+ CD16+ NK cells</t>
+  </si>
+  <si>
+    <t>CD56+,CD16+</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>Dendritic Cells (DCs)</t>
+  </si>
+  <si>
+    <t>CL_0000451</t>
+  </si>
+  <si>
+    <t>CD14+ monocyte</t>
+  </si>
+  <si>
+    <t>CD14+</t>
+  </si>
+  <si>
+    <t>PR:000001889</t>
+  </si>
+  <si>
+    <t>dendritic cells</t>
+  </si>
+  <si>
+    <t>CD38-expressing CD4+ T cells</t>
+  </si>
+  <si>
+    <t>lymphocytes</t>
+  </si>
+  <si>
+    <t>CL_0000542</t>
+  </si>
+  <si>
+    <t>neutrophils</t>
+  </si>
+  <si>
+    <t>CL_0000775</t>
+  </si>
+  <si>
+    <t>PMN-MDSC (Myeloid-Derived Suppressor Cells)</t>
+  </si>
+  <si>
+    <t>myeloid suppressor cell</t>
+  </si>
+  <si>
+    <t>CL_0000889</t>
+  </si>
+  <si>
+    <t>Polymorphonuclear (PMN), myeloid-derived</t>
+  </si>
+  <si>
+    <t>eosinophils</t>
+  </si>
+  <si>
+    <t>CL_0000771</t>
+  </si>
+  <si>
+    <t>non-classical monocytes</t>
+  </si>
+  <si>
+    <t>classical monocytes</t>
+  </si>
+  <si>
+    <t>intermediate monocytes</t>
+  </si>
+  <si>
+    <t>type 1 dendritic cells</t>
+  </si>
+  <si>
+    <t>conventional dendritic cell</t>
+  </si>
+  <si>
+    <t>CL_0000990</t>
+  </si>
+  <si>
+    <t>type 1</t>
+  </si>
+  <si>
+    <t>type 2 dendritic cells</t>
+  </si>
+  <si>
+    <t>type 2</t>
+  </si>
+  <si>
+    <t>plasmacytoid dendritic cells</t>
+  </si>
+  <si>
+    <t>natural killer T cells</t>
+  </si>
+  <si>
+    <t>mature nk t cell</t>
+  </si>
+  <si>
+    <t>CL_0000814</t>
+  </si>
+  <si>
+    <t>natural killer cells</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>t cell</t>
+  </si>
+  <si>
+    <t>CL_0000084</t>
+  </si>
+  <si>
+    <t>non-conventional monocytes</t>
+  </si>
+  <si>
+    <t>CD16high neutrophils</t>
+  </si>
+  <si>
+    <t>CD16int neutrophils</t>
+  </si>
+  <si>
+    <t>CD8 cells</t>
+  </si>
+  <si>
+    <t>cd8-positive, alpha-beta cytotoxic t cell</t>
+  </si>
+  <si>
+    <t>CL_0000794</t>
+  </si>
+  <si>
+    <t>CD4 cells</t>
+  </si>
+  <si>
+    <t>CD4+ Tfh cells</t>
+  </si>
+  <si>
+    <t>t follicular helper cell</t>
+  </si>
+  <si>
+    <t>CL_0002038</t>
+  </si>
+  <si>
+    <t>CD4+</t>
+  </si>
+  <si>
+    <t>PR:000001004</t>
+  </si>
+  <si>
+    <t>CD4+ TCR cells</t>
+  </si>
+  <si>
+    <t>activated cd4-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000896</t>
+  </si>
+  <si>
+    <t>CD8+ granzyme B cells</t>
+  </si>
+  <si>
+    <t>CD8+ TCR cells</t>
+  </si>
+  <si>
+    <t>activated cd8-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000906</t>
+  </si>
+  <si>
+    <t>naive CD4+ CD45RA+ CCR7+ T cells</t>
+  </si>
+  <si>
+    <t>naive thymus-derived cd4-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000895</t>
+  </si>
+  <si>
+    <t>CD45RA+,CCR7+</t>
+  </si>
+  <si>
+    <t>PR:000001015,PR:000001203</t>
+  </si>
+  <si>
+    <t>naive CD8+ CD45RA+ CCR7+ T cells</t>
+  </si>
+  <si>
+    <t>naive thymus-derived cd8-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000900</t>
+  </si>
+  <si>
+    <t>activated CD8+ T cells</t>
+  </si>
+  <si>
+    <t>exhausted PD1+ CD57+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>exhausted t cell</t>
+  </si>
+  <si>
+    <t>CL_0011025</t>
+  </si>
+  <si>
+    <t>CD4+,PD1+,CD57+</t>
+  </si>
+  <si>
+    <t>PR:000001004,PR:000001919,PR:000001440</t>
+  </si>
+  <si>
+    <t>exhausted PD1+ CD57+ CD8+ T cells</t>
+  </si>
+  <si>
+    <t>CD8+,PD1+,CD57+</t>
+  </si>
+  <si>
+    <t>PR:000001084,PR:000001919,PR:000001440</t>
+  </si>
+  <si>
+    <t>gamma delta CD3+ T cells</t>
+  </si>
+  <si>
+    <t>gamma-delta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000798</t>
+  </si>
+  <si>
+    <t>activated memory CD19+ CD27+ CD21- B cells</t>
+  </si>
+  <si>
+    <t>memory b cell</t>
+  </si>
+  <si>
+    <t>CL_0000787</t>
+  </si>
+  <si>
+    <t>CD19+,CD27+,CD21-</t>
+  </si>
+  <si>
+    <t>PR:000001002,PR:000001963,PR:000001338</t>
+  </si>
+  <si>
+    <t>activated memory B cell</t>
+  </si>
+  <si>
+    <t>CD19+ CD38+ CD27+ plasmablasts/antibody-secreting cells (ASC)</t>
+  </si>
+  <si>
+    <t>CD19+,CD38+,CD27+</t>
+  </si>
+  <si>
+    <t>PR:000001002,PR:000001408,PR:000001963</t>
+  </si>
+  <si>
+    <t>exhausted CD19+ CD27- CD21low/neg B cells</t>
+  </si>
+  <si>
+    <t>CD19+,CD27-,CD21-</t>
+  </si>
+  <si>
+    <t>exchausted B cell</t>
+  </si>
+  <si>
+    <t>NK CD56dim cells</t>
+  </si>
+  <si>
+    <t>CD56+</t>
+  </si>
+  <si>
+    <t>NK CD56bright cells</t>
+  </si>
+  <si>
+    <t>differentiated Ki67+ CD56dim CD57+ NK cells</t>
+  </si>
+  <si>
+    <t>NKG2A+ NK cells</t>
+  </si>
+  <si>
+    <t>classical CD14+ CD16- monocytes</t>
+  </si>
+  <si>
+    <t>cd14-positive, cd16-negative classical monocyte</t>
+  </si>
+  <si>
+    <t>CL_0002057</t>
+  </si>
+  <si>
+    <t>intermediate CD16+ CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>cd14-positive, cd16-positive monocyte</t>
+  </si>
+  <si>
+    <t>CL_0002397</t>
+  </si>
+  <si>
+    <t>non-classical CD14- CD16+ monocytes</t>
+  </si>
+  <si>
+    <t>CD14-,CD16+</t>
+  </si>
+  <si>
+    <t>PR:000001889,PR:000001483</t>
+  </si>
+  <si>
+    <t>whole blood cells (WBCs)</t>
+  </si>
+  <si>
+    <t>blood cell</t>
+  </si>
+  <si>
+    <t>CL_0000081</t>
+  </si>
+  <si>
+    <t>whole blood cell</t>
+  </si>
+  <si>
+    <t>platelets</t>
+  </si>
+  <si>
+    <t>platelet</t>
+  </si>
+  <si>
+    <t>CL_0000233</t>
+  </si>
+  <si>
+    <t>Dendritic cells (DC)</t>
+  </si>
+  <si>
+    <t>total T cells</t>
+  </si>
+  <si>
+    <t>CD8+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>mucosal invariant t cell</t>
+  </si>
+  <si>
+    <t>CL_0000940</t>
+  </si>
+  <si>
+    <t>CD8+</t>
+  </si>
+  <si>
+    <t>PR:000001084</t>
+  </si>
+  <si>
+    <t>total Natural Killer (NK) cells</t>
+  </si>
+  <si>
+    <t>Innate Lymphoid Cells (ILCs)</t>
+  </si>
+  <si>
+    <t>innate lymphoid cell</t>
+  </si>
+  <si>
+    <t>CL_0001065</t>
+  </si>
+  <si>
+    <t>CD27+ CD38+ B cells (B cell plasmablasts)</t>
+  </si>
+  <si>
+    <t>CD27+,CD38+</t>
+  </si>
+  <si>
+    <t>CD21- CD27- B cells</t>
+  </si>
+  <si>
+    <t>CD27-,CD21-</t>
+  </si>
+  <si>
+    <t>PR:000001963,PR:000001338</t>
+  </si>
+  <si>
+    <t>CD21+ CD27+ B cells</t>
+  </si>
+  <si>
+    <t>CD27+,CD21+</t>
+  </si>
+  <si>
+    <t>CD16+ Natural Killer (NK) cells</t>
+  </si>
+  <si>
+    <t>CD38+ memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>HLA-DR+ CD38+ memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD38+,HLADRA+</t>
+  </si>
+  <si>
+    <t>PR:000001408,PR:000002015</t>
+  </si>
+  <si>
+    <t>memory CD4+ T cell</t>
+  </si>
+  <si>
+    <t>PD-1+ memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>HLA-DR+ CD38+ memory CD8+ T cells</t>
+  </si>
+  <si>
+    <t>memory CD8+ T cell</t>
+  </si>
+  <si>
+    <t>HLA-DR+ CD38+ CD8+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>CD38+,HLADRA+,CD8+</t>
+  </si>
+  <si>
+    <t>PR:000001408,PR:000002015,PR:000001084</t>
+  </si>
+  <si>
+    <t>CD38+ memory CD8+ T cells</t>
+  </si>
+  <si>
+    <t>cd8-positive, alpha-beta memory t cell</t>
+  </si>
+  <si>
+    <t>CL_0000909</t>
+  </si>
+  <si>
+    <t>CD16p_MFI_inNK</t>
+  </si>
+  <si>
+    <t>Monocytes_inCD45</t>
+  </si>
+  <si>
+    <t>Tc_inCD45</t>
+  </si>
+  <si>
+    <t>ILC_inCD45</t>
+  </si>
+  <si>
+    <t>CD56hiCD16n_NK</t>
+  </si>
+  <si>
+    <t>Tem_CD8</t>
+  </si>
+  <si>
+    <t>effector memory cd8-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000913</t>
+  </si>
+  <si>
+    <t>Tem_CD4</t>
+  </si>
+  <si>
+    <t>effector memory cd4-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000905</t>
+  </si>
+  <si>
+    <t>Eosinophils_inCD45</t>
+  </si>
+  <si>
+    <t>polymorphonuclear leukocytes (PMNs)</t>
+  </si>
+  <si>
+    <t>CL_0000094</t>
+  </si>
+  <si>
+    <t>PD-1+ Memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>Natural Killer (NK) cells</t>
+  </si>
+  <si>
+    <t>CD56bright CD16- Natural Killer (NK) cells</t>
+  </si>
+  <si>
+    <t>CD56++,CD16-</t>
+  </si>
+  <si>
+    <t>CD56dim CD16+ Natural Killer (NK) cells</t>
+  </si>
+  <si>
+    <t>CD56+-,CD16+</t>
+  </si>
+  <si>
+    <t>CD21+ CD27+ non-plasmablast B cells</t>
+  </si>
+  <si>
+    <t>non-plasmablast B cells</t>
+  </si>
+  <si>
+    <t>CD45 monocytes</t>
+  </si>
+  <si>
+    <t>CD45 classical (CD14Hi CD16-) monocytes</t>
+  </si>
+  <si>
+    <t>large (FSC-Hi) monocytes</t>
+  </si>
+  <si>
+    <t>Large-size lymphocyets, as determined by forward scatter (FSC) statistics</t>
+  </si>
+  <si>
+    <t>intermediate (CD14Hi CD16+) monocytes</t>
+  </si>
+  <si>
+    <t>CD45 CD8+ monocytes</t>
+  </si>
+  <si>
+    <t>CD8+ lymphocytes</t>
+  </si>
+  <si>
+    <t>CD14Hi CD16- classical monocytes</t>
+  </si>
+  <si>
+    <t>CD45 lymphocytes</t>
+  </si>
+  <si>
+    <t>CD45 B cells</t>
+  </si>
+  <si>
+    <t>CD45 CD8+ lymphocytes</t>
+  </si>
+  <si>
+    <t>CD45 CD4+ lymphocytes</t>
+  </si>
+  <si>
+    <t>cd4-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000624</t>
+  </si>
+  <si>
+    <t>CD45 CD4+ CD8+ lymphocytes</t>
+  </si>
+  <si>
+    <t>double-positive, alpha-beta thymocyte</t>
+  </si>
+  <si>
+    <t>CL_0000809</t>
+  </si>
+  <si>
+    <t>CD4+,CD8+</t>
+  </si>
+  <si>
+    <t>PR:000001004,PR:000001084</t>
+  </si>
+  <si>
+    <t>CD45 CD4- CD8- lymphocytes</t>
+  </si>
+  <si>
+    <t>CD4-,CD8-</t>
+  </si>
+  <si>
+    <t>double-negative</t>
+  </si>
+  <si>
+    <t>CD45 granulocytes</t>
+  </si>
+  <si>
+    <t>basophil</t>
+  </si>
+  <si>
+    <t>CL_0000767</t>
+  </si>
+  <si>
+    <t>whole blood cell (WBC)</t>
+  </si>
+  <si>
+    <t>cytotoxic lymphocytes</t>
+  </si>
+  <si>
+    <t>cytotoxic t cell</t>
+  </si>
+  <si>
+    <t>CL_0000910</t>
+  </si>
+  <si>
+    <t>monocytic lineage</t>
+  </si>
+  <si>
+    <t>myeloid dendritic cells</t>
+  </si>
+  <si>
+    <t>CL_0000782</t>
+  </si>
+  <si>
+    <t>CD8 T cells</t>
+  </si>
+  <si>
+    <t>NK cells</t>
+  </si>
+  <si>
+    <t>B lineage</t>
+  </si>
+  <si>
+    <t>lymphocyte of b lineage</t>
+  </si>
+  <si>
+    <t>CL_0000945</t>
+  </si>
+  <si>
+    <t>CD3+ cells</t>
+  </si>
+  <si>
+    <t>CD3+ CD8+ cells</t>
+  </si>
+  <si>
+    <t>CD19+ cells</t>
+  </si>
+  <si>
+    <t>b cell, cd19-positive</t>
+  </si>
+  <si>
+    <t>CL_0001201</t>
+  </si>
+  <si>
+    <t>CD3+ CD4+ cells</t>
+  </si>
+  <si>
+    <t>PD-1+ CD3+ CD4+ cells</t>
+  </si>
+  <si>
+    <t>CD4+,PD1+</t>
+  </si>
+  <si>
+    <t>PR:000001004,PR:000001919</t>
+  </si>
+  <si>
+    <t>PD-1+ CD3+ CD8+ cells</t>
+  </si>
+  <si>
+    <t>CD8+,PD1+</t>
+  </si>
+  <si>
+    <t>PR:000001084,PR:000001919</t>
+  </si>
+  <si>
+    <t>Tim-3+ CD3+ CD4+ cells</t>
+  </si>
+  <si>
+    <t>CD4+,TIM3+</t>
+  </si>
+  <si>
+    <t>PR:000001004,PR:000008454</t>
+  </si>
+  <si>
+    <t>Tim-3+ CD3+ CD8+ cells</t>
+  </si>
+  <si>
+    <t>CD8+,TIM3+</t>
+  </si>
+  <si>
+    <t>PR:000001084,PR:000008454</t>
+  </si>
+  <si>
+    <t>CD38+ CD3+ CD8+ cells</t>
+  </si>
+  <si>
+    <t>CD38+ HLA-DR+ CD3+ CD8+ cells</t>
+  </si>
+  <si>
+    <t>CD45+ T cells</t>
+  </si>
+  <si>
+    <t>CD45+ monocytes</t>
+  </si>
+  <si>
+    <t>CD45+ B cells</t>
+  </si>
+  <si>
+    <t>CD45+ conventional dendritic cells (cDC)</t>
+  </si>
+  <si>
+    <t>naive (CD45RA+ CD27+ CD28+ CD95-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD45RA+,CD27+,CD28+,CD95-</t>
+  </si>
+  <si>
+    <t>PR:000001015,PR:000001963,PR:000001841,PR:000001962</t>
+  </si>
+  <si>
+    <t>effector memory Ra+ (TEMRA) (CD45RA- CD27+ CD28+ CCR7-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD45RA-,CD27+,CD28+,CCR7-</t>
+  </si>
+  <si>
+    <t>PR:000001015,PR:000001963,PR:000001841,PR:000001203</t>
+  </si>
+  <si>
+    <t>CD4+ T regulatory cells (Tregs) (CD25+ CD127-)</t>
+  </si>
+  <si>
+    <t>cd4-positive, cd25-positive, alpha-beta regulatory t cell</t>
+  </si>
+  <si>
+    <t>CL_0000792</t>
+  </si>
+  <si>
+    <t>CD25+,CD127-</t>
+  </si>
+  <si>
+    <t>PR:000001380,PR:000001869</t>
+  </si>
+  <si>
+    <t>effector memory-4 (EM4) (CD45RA- CD27- CD28- CCR7-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD45RA-,CD27-,CD28-,CCR7-</t>
+  </si>
+  <si>
+    <t>effector memory-3 (EM3) (CD45RA- CD27- CD28+ CCR7-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD45RA-,CD27-,CD28+,CCR7-</t>
+  </si>
+  <si>
+    <t>effector memory-2 (EM2) (CD45RA- CD27- CD28+ CCR7+) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD45RA-,CD27-,CD28+,CCR7+</t>
+  </si>
+  <si>
+    <t>effector memory-1 (EM1) (CD45RA- CD27+ CD28+ CCR7-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>central memory (CM) (CD45RA- CD27+ CD28+ CCR7+) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>central memory cd4-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000904</t>
+  </si>
+  <si>
+    <t>CD45RA-,CD27+,CD28+,CCR7+</t>
+  </si>
+  <si>
+    <t>Stem cell-like memory (SCM) (CD45RA+ CD27+ CD28+ CD95+) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD45RA+,CD27+,CD28+,CD95+</t>
+  </si>
+  <si>
+    <t>naive (CD45RA+ CD27+ CD28+ CD95-) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>Stem cell-like memory (SCM) (CD45RA+ CD27+ CD28+ CD95+) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>central memory (CM) (CD45RA- CD27+ CD28+ CCR7+) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>central memory cd8-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0000907</t>
+  </si>
+  <si>
+    <t>effector memory-4 (EM4) (CD45RA- CD27- CD28- CCR7-) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>effector memory-3 (EM3) (CD45RA- CD27- CD28+ CCR7-) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>effector memory-1 (EM1) (CD45RA- CD27+ CD28+ CCR7-) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>effector memory Ra+ (TEMRA) (CD45RA- CD27+ CD28+ CCR7-) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>effector memory-2 (EM2) (CD45RA- CD27- CD28+ CCR7+) CD8+ T cells</t>
+  </si>
+  <si>
+    <t>T regulatory (Tregs) (CD25+ CD127-) cells</t>
+  </si>
+  <si>
+    <t>regulatory t cell</t>
+  </si>
+  <si>
+    <t>CL_0000815</t>
+  </si>
+  <si>
+    <t>TNF-alpha+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>IL-2+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>IL2+</t>
+  </si>
+  <si>
+    <t>IL-2+ CD4+ effector T cells</t>
+  </si>
+  <si>
+    <t>effector cd4-positive, alpha-beta t cell</t>
+  </si>
+  <si>
+    <t>CL_0001044</t>
+  </si>
+  <si>
+    <t>TNF-alpha+ IL-2+ IFN-gamma+ CD4+ T cell</t>
+  </si>
+  <si>
+    <t>TNFA+,IL2+,IFNG+</t>
+  </si>
+  <si>
+    <t>PR:000000134,PR:000001379,PR:000000017</t>
+  </si>
+  <si>
+    <t>TNF-alpha+ CD4+ effector T cells</t>
+  </si>
+  <si>
+    <t>IFN-gamma &amp; granzyme B-coproducing CD4+ T cells</t>
+  </si>
+  <si>
+    <t>IFNG+,GZMB+</t>
+  </si>
+  <si>
+    <t>PR:000000017,PR:000003499</t>
+  </si>
+  <si>
+    <t>CD4+ CD25+ CD127- CD3+ regulatory T cells</t>
+  </si>
+  <si>
+    <t>CD62L-hi CD45RO-low CD4+ naive T cells</t>
+  </si>
+  <si>
+    <t>CD62L++,CD45RO+-</t>
+  </si>
+  <si>
+    <t>PR:000001318,PR:000001017</t>
+  </si>
+  <si>
+    <t>CD62L-low CD45RO-hi CD4+ effector memory T cells</t>
+  </si>
+  <si>
+    <t>CD62L+-,CD45RO++</t>
+  </si>
+  <si>
+    <t>CD62L-hi CD45RO-low CD8+ naive T cells</t>
+  </si>
+  <si>
+    <t>CD62L-low CD45RO-hi CD8+ effector memory T cells</t>
+  </si>
+  <si>
+    <t>MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>Mucosal-associated invariant T (MAIT) cells were identified via MR1 5-OP-RU BV421-labeled tetramer staining</t>
+  </si>
+  <si>
+    <t>CD8+/MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>CD8+/CD161+/Valpha7.2+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>CD8+,CD161+</t>
+  </si>
+  <si>
+    <t>PR:000001084,PR:000025670</t>
+  </si>
+  <si>
+    <t>Valpha7.2+</t>
+  </si>
+  <si>
+    <t>IL-12R+/MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>IL12R+</t>
+  </si>
+  <si>
+    <t>PR:000008980</t>
+  </si>
+  <si>
+    <t>IL18R+/MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>IL18R1+</t>
+  </si>
+  <si>
+    <t>PR:000001377</t>
+  </si>
+  <si>
+    <t>CD38+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>CD38+,CD161+</t>
+  </si>
+  <si>
+    <t>PR:000001408,PR:000025670</t>
+  </si>
+  <si>
+    <t>CD69+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>CD69+,CD161+</t>
+  </si>
+  <si>
+    <t>PR:000001343,PR:000025670</t>
+  </si>
+  <si>
+    <t>HLA-DR+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>HLADRA+,CD161+</t>
+  </si>
+  <si>
+    <t>PR:000002015,PR:000025670</t>
+  </si>
+  <si>
+    <t>CTLA-4+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT) cell</t>
+  </si>
+  <si>
+    <t>CD161+,CTLA4+</t>
+  </si>
+  <si>
+    <t>PR:000025670,PR:000001852</t>
+  </si>
+  <si>
+    <t>CD38+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>CD69+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT)cells</t>
+  </si>
+  <si>
+    <t>CTLA-4+ CD161+ Valpha7.2+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>IL-17A+ MR1 5-OP-RU+ mucosal-associated invariant T (MAIT)cells</t>
+  </si>
+  <si>
+    <t>TNFalpha+ MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>GrzB+ MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>Perforin+ MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>PRF1+</t>
+  </si>
+  <si>
+    <t>PR:000003466</t>
+  </si>
+  <si>
+    <t>IFNgamma+ MR1 5-OP-RU+ mucosal-associated invariant T (MAIT) cells</t>
+  </si>
+  <si>
+    <t>absolute lymphocytes</t>
+  </si>
+  <si>
+    <t>CCR4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR4+</t>
+  </si>
+  <si>
+    <t>PR:000001200</t>
+  </si>
+  <si>
+    <t>TNF+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>TNF+</t>
+  </si>
+  <si>
+    <t>107+ IFN+ TNF+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>TNF+,IFNG+,CD107A+</t>
+  </si>
+  <si>
+    <t>PR:000000134,PR:000000017,PR:000002060</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>CD27high CD38high B cells</t>
+  </si>
+  <si>
+    <t>CL_0000786</t>
+  </si>
+  <si>
+    <t>CD27++,CD38++</t>
+  </si>
+  <si>
+    <t>IgA2+ CD27high CD38high B cells</t>
+  </si>
+  <si>
+    <t>CD27++,CD38++,IGA2+</t>
+  </si>
+  <si>
+    <t>PR:000001963,PR:000001408,PR:000050180</t>
+  </si>
+  <si>
+    <t>NK T cells</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>PD1+ CD56+ CD3- NK Cells</t>
+  </si>
+  <si>
+    <t>CD56+,CD3-,PD1+</t>
+  </si>
+  <si>
+    <t>PR:000001024,PR:000001020,PR:000001919</t>
+  </si>
+  <si>
+    <t>PD-L1+ CD56+ CD3- NK Cells</t>
+  </si>
+  <si>
+    <t>CD56+,CD3-,PDL1+</t>
+  </si>
+  <si>
+    <t>PR:000001024,PR:000001020,PR:000001543</t>
+  </si>
+  <si>
+    <t>NKG2D+ NKp46+ NK Cells</t>
+  </si>
+  <si>
+    <t>NKG2D+,NKP46+</t>
+  </si>
+  <si>
+    <t>PR:000001828,PR:000001893</t>
+  </si>
+  <si>
+    <t>CD16+ CD56+ CD3- NK Cells</t>
+  </si>
+  <si>
+    <t>CD16+,CD56+,CD3+-</t>
+  </si>
+  <si>
+    <t>PR:000001483,PR:000001024,PR:000001020</t>
+  </si>
+  <si>
+    <t>PDL1+ NK Cells</t>
+  </si>
+  <si>
+    <t>PDL1+</t>
+  </si>
+  <si>
+    <t>PR:000001543</t>
+  </si>
+  <si>
+    <t>CD3- CD56+ NK cells</t>
+  </si>
+  <si>
+    <t>CD3-,CD56+</t>
+  </si>
+  <si>
+    <t>PR:000001020,PR:000001024</t>
+  </si>
+  <si>
+    <t>immature CD56-bright NK cells</t>
+  </si>
+  <si>
+    <t>immature natural killer cell</t>
+  </si>
+  <si>
+    <t>CL_0000823</t>
+  </si>
+  <si>
+    <t>mature CD57+ NK cells</t>
+  </si>
+  <si>
+    <t>mature natural killer cell</t>
+  </si>
+  <si>
+    <t>CL_0000824</t>
+  </si>
+  <si>
+    <t>CD57+</t>
+  </si>
+  <si>
+    <t>PR:000001440</t>
+  </si>
+  <si>
+    <t>mature CD56-dim CD57+ NK cells</t>
+  </si>
+  <si>
+    <t>CD57+,CD56+-</t>
+  </si>
+  <si>
+    <t>PR:000001440,PR:000001024</t>
+  </si>
+  <si>
+    <t>FCepsilonRly- CD56+ CD57+ NK cells</t>
+  </si>
+  <si>
+    <t>CD69+ NK cells</t>
+  </si>
+  <si>
+    <t>TIM-3+ NK cells</t>
+  </si>
+  <si>
+    <t>TIM3+</t>
+  </si>
+  <si>
+    <t>PR:000008454</t>
+  </si>
+  <si>
+    <t>PD1+ NK cells</t>
+  </si>
+  <si>
+    <t>NKG2D+ NK cells</t>
+  </si>
+  <si>
+    <t>PR:000001828</t>
+  </si>
+  <si>
+    <t>Siglec-7+ NK cells</t>
+  </si>
+  <si>
+    <t>SIGLEC7+</t>
+  </si>
+  <si>
+    <t>PR:000001929</t>
+  </si>
+  <si>
+    <t>DNAM-1+ NK cells</t>
+  </si>
+  <si>
+    <t>DNAM1+</t>
+  </si>
+  <si>
+    <t>PR:000001302</t>
+  </si>
+  <si>
+    <t>CXCR6+ NK cells</t>
+  </si>
+  <si>
+    <t>CXCR6+</t>
+  </si>
+  <si>
+    <t>PR:000001210</t>
+  </si>
+  <si>
+    <t>IFNgamma+ NK cells</t>
+  </si>
+  <si>
+    <t>CD107a+ NK cells</t>
+  </si>
+  <si>
+    <t>IL-6+ CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>IL-8+ CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>IL8+</t>
+  </si>
+  <si>
+    <t>PR:000001395</t>
+  </si>
+  <si>
+    <t>IL-1beta+ CD14+ monocytes</t>
+  </si>
+  <si>
+    <t>IL-6+ classical monocytes</t>
+  </si>
+  <si>
+    <t>IL-6+ non-classical monocytes</t>
+  </si>
+  <si>
+    <t>IL-6+ intermediate monocytes</t>
+  </si>
+  <si>
+    <t>IL-8+ classical monocytes</t>
+  </si>
+  <si>
+    <t>IL-8+ non-classical monocytes</t>
+  </si>
+  <si>
+    <t>IL-8+ intermediate monocytes</t>
+  </si>
+  <si>
+    <t>IL-1beta+ classical monocytes</t>
+  </si>
+  <si>
+    <t>IL-1beta+ intermediate monocytes</t>
+  </si>
+  <si>
+    <t>IL-1beta+ non-classical monocytes</t>
+  </si>
+  <si>
+    <t>CD19+ CD45+ B cell</t>
+  </si>
+  <si>
+    <t>CD21-low transitional B cell</t>
+  </si>
+  <si>
+    <t>transitional stage b cell</t>
+  </si>
+  <si>
+    <t>CL_0000818</t>
+  </si>
+  <si>
+    <t>CD21+-</t>
+  </si>
+  <si>
+    <t>DN2 B cell</t>
+  </si>
+  <si>
+    <t>double negative memory b cell</t>
+  </si>
+  <si>
+    <t>CL_0000981</t>
+  </si>
+  <si>
+    <t>CXCR5-,CD21-</t>
+  </si>
+  <si>
+    <t>PR:000001209,PR:000001338</t>
+  </si>
+  <si>
+    <t>usM B cells</t>
+  </si>
+  <si>
+    <t>unswitched memory b cell</t>
+  </si>
+  <si>
+    <t>CL_0000970</t>
+  </si>
+  <si>
+    <t>aN naive B cell</t>
+  </si>
+  <si>
+    <t>naive b cell</t>
+  </si>
+  <si>
+    <t>CL_0000788</t>
+  </si>
+  <si>
+    <t>activated naive B cell</t>
+  </si>
+  <si>
+    <t>antibody-secreting cell</t>
+  </si>
+  <si>
+    <t>CL_0000946</t>
+  </si>
+  <si>
+    <t>transitional B cell</t>
+  </si>
+  <si>
+    <t>DN3 B cell</t>
+  </si>
+  <si>
+    <t>CD21-,CD11C-</t>
+  </si>
+  <si>
+    <t>PR:000001338,PR:000001013</t>
+  </si>
+  <si>
+    <t>DN1 B cell</t>
+  </si>
+  <si>
+    <t>CD21+,CD11C-</t>
+  </si>
+  <si>
+    <t>uSM B cells</t>
+  </si>
+  <si>
+    <t>CD14+ CD16++ non-classical monocytes</t>
+  </si>
+  <si>
+    <t>CD3+ T cells of lymphocytes</t>
+  </si>
+  <si>
+    <t>CD4+ T cells of CD3+ cells</t>
+  </si>
+  <si>
+    <t>CD8+ T cells of CD3+ cells</t>
+  </si>
+  <si>
+    <t>CD4+ HLADR+ T cells of CD4+ T cells</t>
+  </si>
+  <si>
+    <t>HLADRA+</t>
+  </si>
+  <si>
+    <t>PR:000002015</t>
+  </si>
+  <si>
+    <t>CD8+ HLADR+ T cells of CD8+ T cells</t>
+  </si>
+  <si>
+    <t>CD31+ CD45RA+ CCR7+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD31+,CD45RA+,CCR7+</t>
+  </si>
+  <si>
+    <t>PR:000001904,PR:000001015,PR:000001203</t>
+  </si>
+  <si>
+    <t>CD31- CD45RA+ CCR7+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD31-,CD45RA+,CCR7+</t>
+  </si>
+  <si>
+    <t>CD31+ CD45RA+ CCR7+ CD8+ T cells</t>
+  </si>
+  <si>
+    <t>CD31- CD45RA+ CCR7+ CD8+ T cells</t>
+  </si>
+  <si>
+    <t>CD3+ CCR7- CD45RA+ CD4+ (TEMRA) T cells</t>
+  </si>
+  <si>
+    <t>effector memory cd4-positive, alpha-beta t cell, terminally differentiated</t>
+  </si>
+  <si>
+    <t>CL_0001087</t>
+  </si>
+  <si>
+    <t>CD45RA+,CCR7-</t>
+  </si>
+  <si>
+    <t>CD3+ CCR7- CD45RA+ CD8+ (TEMRA) T cells</t>
+  </si>
+  <si>
+    <t>effector memory cd8-positive, alpha-beta t cell, terminally differentiated</t>
+  </si>
+  <si>
+    <t>CL_0001062</t>
+  </si>
+  <si>
+    <t>B cells of lymphocytes</t>
+  </si>
+  <si>
+    <t>CD24- CD27++ CD38++ plasmablasts of B cells</t>
+  </si>
+  <si>
+    <t>CD27++,CD38++,CD24-</t>
+  </si>
+  <si>
+    <t>PR:000001963,PR:000001408,PR:000001932</t>
+  </si>
+  <si>
+    <t>memory B cells of B cells</t>
+  </si>
+  <si>
+    <t>IgM+ cells of CD27+ memory B cells</t>
+  </si>
+  <si>
+    <t>CD27+,IGM+</t>
+  </si>
+  <si>
+    <t>PR:000001963,PR:000050257</t>
+  </si>
+  <si>
+    <t>IgM- (switched) cells of CD27+ memory B cells</t>
+  </si>
+  <si>
+    <t>class switched memory b cell</t>
+  </si>
+  <si>
+    <t>CL_0000972</t>
+  </si>
+  <si>
+    <t>CD27+,IGM-</t>
+  </si>
+  <si>
+    <t>IgG+ cells of memory B cells</t>
+  </si>
+  <si>
+    <t>IGG+</t>
+  </si>
+  <si>
+    <t>PR:000050252</t>
+  </si>
+  <si>
+    <t>IgG- IgM- cells of memory B cells</t>
+  </si>
+  <si>
+    <t>IGM-,IGG-</t>
+  </si>
+  <si>
+    <t>PR:000050257,PR:000050252</t>
+  </si>
+  <si>
+    <t>activated (HLA-DR+ CD38+) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>HLADRA+,CD38+</t>
+  </si>
+  <si>
+    <t>PR:000002015,PR:000001408</t>
+  </si>
+  <si>
+    <t>PD1+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>regulatory (CD127- CD25+) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD127-,CD25+</t>
+  </si>
+  <si>
+    <t>PR:000001869,PR:000001380</t>
+  </si>
+  <si>
+    <t>exhausted/senescent (CD57+ PD1+) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD57+,PD1+</t>
+  </si>
+  <si>
+    <t>PR:000001440,PR:000001919</t>
+  </si>
+  <si>
+    <t>(CCR7+ CD45RA+ CD28+ CD27+) naive CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR7+,CD45RA+,CD28+,CD27+</t>
+  </si>
+  <si>
+    <t>PR:000001203,PR:000001015,PR:000001841,PR:000001963</t>
+  </si>
+  <si>
+    <t>central memory (CCR7- CD45RA+ CD28+ CD27+-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR7-,CD45RA+,CD28+,CD27+-</t>
+  </si>
+  <si>
+    <t>effector memory (CCR7- CD45RA- CD28+- CD27+-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR7-,CD45RA-,CD28+-,CD27+-</t>
+  </si>
+  <si>
+    <t>terminal effector (CCR7- CD45RA+ CD28- CD27+-) CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR7-,CD45RA+,CD28-,CD27+-</t>
+  </si>
+  <si>
+    <t>naive CD4+ T regulatory cells</t>
+  </si>
+  <si>
+    <t>naive regulatory t cell</t>
+  </si>
+  <si>
+    <t>CL_0002677</t>
+  </si>
+  <si>
+    <t>central memory CD4+ T regulatory cells</t>
+  </si>
+  <si>
+    <t>activated cd4-positive, alpha-beta t cell, human</t>
+  </si>
+  <si>
+    <t>CL_0001043</t>
+  </si>
+  <si>
+    <t>PD1+ effector memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>PD1+ activated (HLA-DR+ CD38+) central memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>PD1+,HLADRA+,CD38+</t>
+  </si>
+  <si>
+    <t>PR:000001919,PR:000002015,PR:000001408</t>
+  </si>
+  <si>
+    <t>central memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD38+ central memory CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR6+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CCR6+</t>
+  </si>
+  <si>
+    <t>PR:000001202</t>
+  </si>
+  <si>
+    <t>CXCR3+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>PR:000001207</t>
+  </si>
+  <si>
+    <t>CCR6+ CD161+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>CD161+,CCR6+</t>
+  </si>
+  <si>
+    <t>PR:000025670,PR:000001202</t>
+  </si>
+  <si>
+    <t>CXCR4+ CD4+ T cells</t>
+  </si>
+  <si>
+    <t>naive (CCR7+ CD45RA+ CD28+ CD27+) CD8+ T cells</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1778,7 +3640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1890,6 +3752,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -2204,18 +4067,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3944DF58-9EBC-4069-BDAF-EBCDCF5FF384}">
-  <dimension ref="A1:G210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.87890625" customWidth="1"/>
+    <col min="2" max="2" width="52.703125" customWidth="1"/>
+    <col min="3" max="3" width="47.41015625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
@@ -2332,7 +4195,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2393,7 +4256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="28.7">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -2890,7 +4753,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
@@ -2911,7 +4774,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
         <v>114</v>
       </c>
@@ -3148,7 +5011,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="28.7">
       <c r="A51" s="8" t="s">
         <v>145</v>
       </c>
@@ -3961,7 +5824,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="45">
+    <row r="96" spans="1:7" ht="28.7">
       <c r="A96" s="29" t="s">
         <v>232</v>
       </c>
@@ -3982,7 +5845,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7" ht="28.7">
       <c r="A97" s="31" t="s">
         <v>236</v>
       </c>
@@ -4001,7 +5864,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" ht="45">
+    <row r="98" spans="1:7" ht="28.7">
       <c r="A98" s="32" t="s">
         <v>239</v>
       </c>
@@ -4266,7 +6129,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7">
       <c r="A113" s="35" t="s">
         <v>276</v>
       </c>
@@ -4289,7 +6152,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="45">
+    <row r="114" spans="1:7" ht="28.7">
       <c r="A114" s="39" t="s">
         <v>282</v>
       </c>
@@ -4308,7 +6171,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" ht="45">
+    <row r="115" spans="1:7" ht="28.7">
       <c r="A115" s="39" t="s">
         <v>286</v>
       </c>
@@ -4344,7 +6207,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="45">
+    <row r="117" spans="1:7" ht="28.7">
       <c r="A117" s="31" t="s">
         <v>291</v>
       </c>
@@ -4554,7 +6417,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" ht="30">
+    <row r="129" spans="1:7">
       <c r="A129" s="5" t="s">
         <v>327</v>
       </c>
@@ -4574,7 +6437,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="45">
+    <row r="130" spans="1:7" ht="28.7">
       <c r="A130" s="5" t="s">
         <v>333</v>
       </c>
@@ -4628,7 +6491,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="30">
+    <row r="133" spans="1:7" ht="28.7">
       <c r="A133" s="8" t="s">
         <v>341</v>
       </c>
@@ -4709,7 +6572,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="1:7" ht="30">
+    <row r="138" spans="1:7">
       <c r="A138" s="24" t="s">
         <v>353</v>
       </c>
@@ -4728,7 +6591,7 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="1:7" ht="30">
+    <row r="139" spans="1:7">
       <c r="A139" s="25" t="s">
         <v>358</v>
       </c>
@@ -4747,7 +6610,7 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:7" ht="30">
+    <row r="140" spans="1:7">
       <c r="A140" s="25" t="s">
         <v>360</v>
       </c>
@@ -4766,7 +6629,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7" ht="30">
+    <row r="141" spans="1:7">
       <c r="A141" s="25" t="s">
         <v>362</v>
       </c>
@@ -4842,7 +6705,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" ht="30">
+    <row r="145" spans="1:7" ht="28.7">
       <c r="A145" s="14" t="s">
         <v>369</v>
       </c>
@@ -5234,7 +7097,7 @@
       </c>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:7" ht="30">
+    <row r="166" spans="1:7" ht="28.7">
       <c r="A166" s="8" t="s">
         <v>419</v>
       </c>
@@ -5255,7 +7118,7 @@
       </c>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:7" ht="30">
+    <row r="167" spans="1:7" ht="28.7">
       <c r="A167" s="46" t="s">
         <v>422</v>
       </c>
@@ -5297,7 +7160,7 @@
       </c>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="1:7" ht="30">
+    <row r="169" spans="1:7">
       <c r="A169" s="8" t="s">
         <v>428</v>
       </c>
@@ -5318,7 +7181,7 @@
       </c>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="1:7" ht="30">
+    <row r="170" spans="1:7">
       <c r="A170" s="8" t="s">
         <v>432</v>
       </c>
@@ -5337,7 +7200,7 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="1:7" ht="30">
+    <row r="171" spans="1:7" ht="28.7">
       <c r="A171" s="8" t="s">
         <v>433</v>
       </c>
@@ -5686,7 +7549,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="30">
+    <row r="190" spans="1:7" ht="28.7">
       <c r="A190" s="14" t="s">
         <v>471</v>
       </c>
@@ -5750,7 +7613,7 @@
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" spans="1:7" ht="30">
+    <row r="194" spans="1:7">
       <c r="A194" s="5" t="s">
         <v>477</v>
       </c>
@@ -5807,7 +7670,7 @@
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="1:7" ht="30">
+    <row r="197" spans="1:7">
       <c r="A197" s="8" t="s">
         <v>488</v>
       </c>
@@ -5826,7 +7689,7 @@
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" spans="1:7" ht="75">
+    <row r="198" spans="1:7" ht="57.35">
       <c r="A198" s="47" t="s">
         <v>491</v>
       </c>
@@ -5862,7 +7725,7 @@
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" spans="1:7" ht="45">
+    <row r="200" spans="1:7" ht="43">
       <c r="A200" s="47" t="s">
         <v>494</v>
       </c>
@@ -6027,7 +7890,7 @@
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7">
       <c r="A209" s="11" t="s">
         <v>515</v>
       </c>
@@ -6064,6 +7927,5535 @@
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
+    </row>
+    <row r="211" spans="1:7" s="51" customFormat="1">
+      <c r="A211" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="B211" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C211" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D211" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="E211" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F211" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="51" customFormat="1">
+      <c r="A212" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B212" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C212" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D212" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E212" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F212" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="51" customFormat="1">
+      <c r="A213" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="B213" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C213" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D213" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="E213" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="F213" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="51" customFormat="1">
+      <c r="A214" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="B214" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C214" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D214" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="E214" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="F214" s="51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="51" customFormat="1">
+      <c r="A215" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="B215" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D215" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="E215" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="F215" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="51" customFormat="1">
+      <c r="A216" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="B216" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C216" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D216" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E216" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F216" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="51" customFormat="1">
+      <c r="A217" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="B217" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C217" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D217" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="E217" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="F217" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="51" customFormat="1">
+      <c r="A218" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="B218" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D218" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="E218" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="F218" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="51" customFormat="1">
+      <c r="A219" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="B219" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C219" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D219" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="E219" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="F219" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="51" customFormat="1">
+      <c r="A220" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="B220" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C220" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D220" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="E220" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="F220" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="51" customFormat="1">
+      <c r="A221" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="B221" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C221" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D221" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="E221" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="F221" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="51" customFormat="1">
+      <c r="A222" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="B222" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C222" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D222" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="E222" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="F222" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="51" customFormat="1">
+      <c r="A223" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="B223" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C223" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D223" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="E223" s="51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="51" customFormat="1">
+      <c r="A224" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="B224" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C224" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D224" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="E224" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="F224" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="51" customFormat="1">
+      <c r="A225" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="B225" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="C225" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="D225" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="E225" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="F225" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="51" customFormat="1">
+      <c r="A226" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="B226" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C226" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D226" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="E226" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="F226" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="51" customFormat="1">
+      <c r="A227" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="B227" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C227" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D227" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E227" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="F227" s="51" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="51" customFormat="1">
+      <c r="A228" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="B228" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C228" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D228" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="E228" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="F228" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="51" customFormat="1">
+      <c r="A229" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="B229" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C229" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D229" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E229" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F229" s="51" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="51" customFormat="1">
+      <c r="A230" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="B230" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="C230" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D230" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E230" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F230" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="51" customFormat="1">
+      <c r="A231" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="B231" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="C231" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="D231" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E231" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F231" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="51" customFormat="1">
+      <c r="A232" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="B232" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="C232" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="D232" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E232" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F232" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="51" customFormat="1">
+      <c r="A233" s="51" t="s">
+        <v>588</v>
+      </c>
+      <c r="B233" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="C233" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="D233" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E233" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F233" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="51" customFormat="1">
+      <c r="A234" s="51" t="s">
+        <v>591</v>
+      </c>
+      <c r="B234" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C234" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D234" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E234" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="F234" s="51" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="51" customFormat="1">
+      <c r="A235" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="B235" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C235" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D235" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="E235" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="51" customFormat="1">
+      <c r="A236" s="51" t="s">
+        <v>597</v>
+      </c>
+      <c r="B236" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C236" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D236" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="E236" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F236" s="51" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" s="51" customFormat="1">
+      <c r="A237" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="B237" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C237" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D237" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="E237" s="51" t="s">
+        <v>603</v>
+      </c>
+      <c r="F237" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="51" customFormat="1">
+      <c r="A238" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="B238" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C238" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D238" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="E238" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="F238" s="51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="51" customFormat="1">
+      <c r="A239" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="B239" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="C239" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="D239" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E239" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F239" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="51" customFormat="1">
+      <c r="A240" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="B240" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="C240" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="D240" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E240" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F240" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="51" customFormat="1">
+      <c r="A241" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="B241" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="C241" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D241" s="51" t="s">
+        <v>611</v>
+      </c>
+      <c r="E241" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="F241" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="51" customFormat="1">
+      <c r="A242" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="B242" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D242" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="E242" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="F242" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="51" customFormat="1">
+      <c r="A243" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="B243" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C243" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D243" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="E243" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="F243" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="51" customFormat="1">
+      <c r="A244" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="B244" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="C244" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="D244" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="E244" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="F244" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="51" customFormat="1">
+      <c r="A245" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="B245" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="C245" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="D245" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="E245" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="F245" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="51" customFormat="1">
+      <c r="A246" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="B246" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C246" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D246" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="E246" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="F246" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="51" customFormat="1">
+      <c r="A247" s="51" t="s">
+        <v>632</v>
+      </c>
+      <c r="B247" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C247" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D247" s="51" t="s">
+        <v>633</v>
+      </c>
+      <c r="E247" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F247" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="51" customFormat="1">
+      <c r="A248" s="51" t="s">
+        <v>634</v>
+      </c>
+      <c r="B248" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C248" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D248" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="E248" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="F248" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="51" customFormat="1">
+      <c r="A249" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="B249" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C249" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D249" s="51" t="s">
+        <v>638</v>
+      </c>
+      <c r="E249" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="F249" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="51" customFormat="1">
+      <c r="A250" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="B250" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C250" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D250" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E250" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F250" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="51" customFormat="1">
+      <c r="A251" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="B251" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C251" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="D251" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E251" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F251" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="51" customFormat="1">
+      <c r="A252" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="B252" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C252" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D252" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="E252" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="F252" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="51" customFormat="1">
+      <c r="A253" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="B253" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C253" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="D253" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E253" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F253" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="51" customFormat="1">
+      <c r="A254" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="B254" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C254" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D254" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E254" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F254" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="51" customFormat="1">
+      <c r="A255" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="B255" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C255" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="D255" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E255" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F255" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="51" customFormat="1">
+      <c r="A256" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="B256" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C256" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="D256" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E256" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F256" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="51" customFormat="1">
+      <c r="A257" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="B257" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="C257" s="51" t="s">
+        <v>653</v>
+      </c>
+      <c r="D257" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E257" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F257" s="51" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="51" customFormat="1">
+      <c r="A258" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="B258" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C258" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="D258" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E258" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F258" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="51" customFormat="1">
+      <c r="A259" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="B259" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C259" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D259" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E259" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F259" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="51" customFormat="1">
+      <c r="A260" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="B260" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="C260" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="D260" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E260" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F260" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="51" customFormat="1">
+      <c r="A261" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="B261" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="C261" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="D261" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E261" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F261" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="51" customFormat="1">
+      <c r="A262" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="B262" s="51" t="s">
+        <v>661</v>
+      </c>
+      <c r="C262" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D262" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E262" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F262" s="51" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="51" customFormat="1">
+      <c r="A263" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="B263" s="51" t="s">
+        <v>661</v>
+      </c>
+      <c r="C263" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D263" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E263" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" s="51" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="51" customFormat="1">
+      <c r="A264" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="B264" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="C264" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="D264" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E264" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="51" customFormat="1">
+      <c r="A265" s="51" t="s">
+        <v>667</v>
+      </c>
+      <c r="B265" s="51" t="s">
+        <v>668</v>
+      </c>
+      <c r="C265" s="51" t="s">
+        <v>669</v>
+      </c>
+      <c r="D265" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E265" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F265" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="51" customFormat="1">
+      <c r="A266" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="B266" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C266" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D266" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E266" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F266" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="51" customFormat="1">
+      <c r="A267" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="B267" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C267" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D267" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E267" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F267" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="51" customFormat="1">
+      <c r="A268" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="B268" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C268" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D268" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E268" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F268" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="51" customFormat="1">
+      <c r="A269" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="B269" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C269" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="D269" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E269" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F269" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="51" customFormat="1">
+      <c r="A270" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="B270" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C270" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="D270" s="51" t="s">
+        <v>633</v>
+      </c>
+      <c r="E270" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F270" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="51" customFormat="1">
+      <c r="A271" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="B271" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="C271" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="D271" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E271" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F271" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="51" customFormat="1">
+      <c r="A272" s="51" t="s">
+        <v>680</v>
+      </c>
+      <c r="B272" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C272" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D272" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E272" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F272" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="51" customFormat="1">
+      <c r="A273" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="B273" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="C273" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="D273" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="E273" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="F273" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="51" customFormat="1">
+      <c r="A274" s="51" t="s">
+        <v>686</v>
+      </c>
+      <c r="B274" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="C274" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="D274" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E274" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F274" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="51" customFormat="1">
+      <c r="A275" s="51" t="s">
+        <v>689</v>
+      </c>
+      <c r="B275" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="C275" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="D275" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E275" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F275" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="51" customFormat="1">
+      <c r="A276" s="51" t="s">
+        <v>690</v>
+      </c>
+      <c r="B276" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="C276" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D276" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E276" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F276" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="51" customFormat="1">
+      <c r="A277" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="B277" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C277" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="D277" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="E277" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="F277" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="51" customFormat="1">
+      <c r="A278" s="51" t="s">
+        <v>698</v>
+      </c>
+      <c r="B278" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C278" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D278" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="E278" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="F278" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="51" customFormat="1">
+      <c r="A279" s="51" t="s">
+        <v>701</v>
+      </c>
+      <c r="B279" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="C279" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D279" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E279" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F279" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="51" customFormat="1">
+      <c r="A280" s="51" t="s">
+        <v>702</v>
+      </c>
+      <c r="B280" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C280" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D280" s="51" t="s">
+        <v>705</v>
+      </c>
+      <c r="E280" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="F280" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="51" customFormat="1">
+      <c r="A281" s="51" t="s">
+        <v>707</v>
+      </c>
+      <c r="B281" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C281" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D281" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="E281" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="F281" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="51" customFormat="1">
+      <c r="A282" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="B282" s="51" t="s">
+        <v>711</v>
+      </c>
+      <c r="C282" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="D282" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E282" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F282" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="51" customFormat="1">
+      <c r="A283" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="B283" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="C283" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="D283" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="E283" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="F283" s="51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="51" customFormat="1">
+      <c r="A284" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="B284" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="C284" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D284" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="E284" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="F284" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="51" customFormat="1">
+      <c r="A285" s="51" t="s">
+        <v>722</v>
+      </c>
+      <c r="B285" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D285" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="E285" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="F285" s="51" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="51" customFormat="1">
+      <c r="A286" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="B286" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C286" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D286" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="E286" s="51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="51" customFormat="1">
+      <c r="A287" s="51" t="s">
+        <v>727</v>
+      </c>
+      <c r="B287" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C287" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D287" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E287" s="51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="51" customFormat="1">
+      <c r="A288" s="51" t="s">
+        <v>728</v>
+      </c>
+      <c r="B288" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C288" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="51" customFormat="1">
+      <c r="A289" s="51" t="s">
+        <v>729</v>
+      </c>
+      <c r="B289" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C289" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" s="51" customFormat="1">
+      <c r="A290" s="51" t="s">
+        <v>730</v>
+      </c>
+      <c r="B290" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="C290" s="51" t="s">
+        <v>732</v>
+      </c>
+      <c r="D290" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E290" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F290" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" s="51" customFormat="1">
+      <c r="A291" s="51" t="s">
+        <v>733</v>
+      </c>
+      <c r="B291" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="C291" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="D291" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E291" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F291" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" s="51" customFormat="1">
+      <c r="A292" s="51" t="s">
+        <v>736</v>
+      </c>
+      <c r="B292" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C292" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D292" s="51" t="s">
+        <v>737</v>
+      </c>
+      <c r="E292" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="F292" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="51" customFormat="1">
+      <c r="A293" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="B293" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="C293" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="D293" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E293" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F293" s="51" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" s="51" customFormat="1">
+      <c r="A294" s="51" t="s">
+        <v>743</v>
+      </c>
+      <c r="B294" s="51" t="s">
+        <v>744</v>
+      </c>
+      <c r="C294" s="51" t="s">
+        <v>745</v>
+      </c>
+      <c r="D294" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E294" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F294" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="51" customFormat="1">
+      <c r="A295" s="51" t="s">
+        <v>746</v>
+      </c>
+      <c r="B295" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C295" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="D295" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E295" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F295" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" s="51" customFormat="1">
+      <c r="A296" s="51" t="s">
+        <v>747</v>
+      </c>
+      <c r="B296" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C296" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D296" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E296" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F296" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="51" customFormat="1">
+      <c r="A297" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="B297" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C297" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D297" s="51" t="s">
+        <v>751</v>
+      </c>
+      <c r="E297" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="F297" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="51" customFormat="1">
+      <c r="A298" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="B298" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C298" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D298" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E298" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F298" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="51" customFormat="1">
+      <c r="A299" s="51" t="s">
+        <v>754</v>
+      </c>
+      <c r="B299" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="C299" s="51" t="s">
+        <v>756</v>
+      </c>
+      <c r="D299" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E299" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F299" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="51" customFormat="1">
+      <c r="A300" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="B300" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="C300" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D300" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="E300" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="F300" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="51" customFormat="1">
+      <c r="A301" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="B301" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C301" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D301" s="51" t="s">
+        <v>760</v>
+      </c>
+      <c r="E301" s="51" t="s">
+        <v>761</v>
+      </c>
+      <c r="F301" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" s="51" customFormat="1">
+      <c r="A302" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="B302" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C302" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D302" s="51" t="s">
+        <v>763</v>
+      </c>
+      <c r="E302" s="51" t="s">
+        <v>761</v>
+      </c>
+      <c r="F302" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="51" customFormat="1">
+      <c r="A303" s="51" t="s">
+        <v>764</v>
+      </c>
+      <c r="B303" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C303" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D303" s="51" t="s">
+        <v>633</v>
+      </c>
+      <c r="E303" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F303" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="51" customFormat="1">
+      <c r="A304" s="51" t="s">
+        <v>765</v>
+      </c>
+      <c r="B304" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C304" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D304" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E304" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F304" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="51" customFormat="1">
+      <c r="A305" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="B305" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="C305" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="D305" s="51" t="s">
+        <v>767</v>
+      </c>
+      <c r="E305" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="F305" s="51" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="51" customFormat="1">
+      <c r="A306" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="B306" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C306" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D306" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E306" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F306" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="51" customFormat="1">
+      <c r="A307" s="51" t="s">
+        <v>771</v>
+      </c>
+      <c r="B307" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="C307" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D307" s="51" t="s">
+        <v>767</v>
+      </c>
+      <c r="E307" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="F307" s="51" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="51" customFormat="1">
+      <c r="A308" s="51" t="s">
+        <v>773</v>
+      </c>
+      <c r="B308" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C308" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D308" s="51" t="s">
+        <v>774</v>
+      </c>
+      <c r="E308" s="51" t="s">
+        <v>775</v>
+      </c>
+      <c r="F308" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="51" customFormat="1">
+      <c r="A309" s="51" t="s">
+        <v>776</v>
+      </c>
+      <c r="B309" s="51" t="s">
+        <v>777</v>
+      </c>
+      <c r="C309" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="D309" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E309" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F309" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="51" customFormat="1">
+      <c r="A310" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="B310" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C310" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="51" customFormat="1">
+      <c r="A311" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="B311" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C311" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D311" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E311" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F311" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="51" customFormat="1">
+      <c r="A312" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="B312" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C312" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D312" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E312" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F312" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="51" customFormat="1">
+      <c r="A313" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="B313" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="C313" s="51" t="s">
+        <v>756</v>
+      </c>
+      <c r="D313" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E313" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F313" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" s="51" customFormat="1">
+      <c r="A314" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="B314" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C314" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="51" customFormat="1">
+      <c r="A315" s="51" t="s">
+        <v>784</v>
+      </c>
+      <c r="B315" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C315" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D315" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E315" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F315" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="51" customFormat="1">
+      <c r="A316" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="B316" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C316" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D316" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E316" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F316" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="51" customFormat="1">
+      <c r="A317" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="B317" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C317" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="D317" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E317" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F317" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="51" customFormat="1">
+      <c r="A318" s="51" t="s">
+        <v>791</v>
+      </c>
+      <c r="B318" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C318" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="D318" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E318" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F318" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="51" customFormat="1">
+      <c r="A319" s="51" t="s">
+        <v>793</v>
+      </c>
+      <c r="B319" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C319" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D319" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E319" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F319" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" s="51" customFormat="1">
+      <c r="A320" s="51" t="s">
+        <v>794</v>
+      </c>
+      <c r="B320" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C320" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="51" customFormat="1">
+      <c r="A321" s="51" t="s">
+        <v>795</v>
+      </c>
+      <c r="B321" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C321" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D321" s="51" t="s">
+        <v>796</v>
+      </c>
+      <c r="E321" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="F321" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="51" customFormat="1">
+      <c r="A322" s="51" t="s">
+        <v>797</v>
+      </c>
+      <c r="B322" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C322" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D322" s="51" t="s">
+        <v>798</v>
+      </c>
+      <c r="E322" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="F322" s="51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" s="51" customFormat="1">
+      <c r="A323" s="51" t="s">
+        <v>799</v>
+      </c>
+      <c r="B323" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C323" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D323" s="51" t="s">
+        <v>763</v>
+      </c>
+      <c r="E323" s="51" t="s">
+        <v>761</v>
+      </c>
+      <c r="F323" s="51" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" s="51" customFormat="1">
+      <c r="A324" s="51" t="s">
+        <v>801</v>
+      </c>
+      <c r="B324" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C324" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D324" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E324" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F324" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" s="51" customFormat="1">
+      <c r="A325" s="51" t="s">
+        <v>802</v>
+      </c>
+      <c r="B325" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="C325" s="51" t="s">
+        <v>732</v>
+      </c>
+      <c r="D325" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E325" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F325" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" s="51" customFormat="1">
+      <c r="A326" s="51" t="s">
+        <v>803</v>
+      </c>
+      <c r="B326" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C326" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D326" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E326" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F326" s="51" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" s="51" customFormat="1">
+      <c r="A327" s="51" t="s">
+        <v>805</v>
+      </c>
+      <c r="B327" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="C327" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="D327" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E327" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F327" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" s="51" customFormat="1">
+      <c r="A328" s="51" t="s">
+        <v>806</v>
+      </c>
+      <c r="B328" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C328" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D328" s="51" t="s">
+        <v>751</v>
+      </c>
+      <c r="E328" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="F328" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" s="51" customFormat="1">
+      <c r="A329" s="51" t="s">
+        <v>807</v>
+      </c>
+      <c r="B329" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C329" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D329" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E329" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F329" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" s="51" customFormat="1">
+      <c r="A330" s="51" t="s">
+        <v>808</v>
+      </c>
+      <c r="B330" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="C330" s="51" t="s">
+        <v>732</v>
+      </c>
+      <c r="D330" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E330" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F330" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="51" customFormat="1">
+      <c r="A331" s="51" t="s">
+        <v>809</v>
+      </c>
+      <c r="B331" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C331" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="D331" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E331" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F331" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" s="51" customFormat="1">
+      <c r="A332" s="51" t="s">
+        <v>810</v>
+      </c>
+      <c r="B332" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C332" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D332" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E332" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F332" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" s="51" customFormat="1">
+      <c r="A333" s="51" t="s">
+        <v>811</v>
+      </c>
+      <c r="B333" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C333" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D333" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E333" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F333" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="51" customFormat="1">
+      <c r="A334" s="51" t="s">
+        <v>812</v>
+      </c>
+      <c r="B334" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C334" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D334" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E334" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F334" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="51" customFormat="1">
+      <c r="A335" s="51" t="s">
+        <v>815</v>
+      </c>
+      <c r="B335" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="C335" s="51" t="s">
+        <v>817</v>
+      </c>
+      <c r="D335" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="E335" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="F335" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" s="51" customFormat="1">
+      <c r="A336" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="B336" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C336" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D336" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="E336" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="F336" s="51" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="51" customFormat="1">
+      <c r="A337" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="B337" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C337" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="D337" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E337" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F337" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="51" customFormat="1">
+      <c r="A338" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="B338" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="C338" s="51" t="s">
+        <v>825</v>
+      </c>
+      <c r="D338" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E338" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F338" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="51" customFormat="1">
+      <c r="A339" s="51" t="s">
+        <v>826</v>
+      </c>
+      <c r="B339" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="C339" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="D339" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E339" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F339" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="51" customFormat="1">
+      <c r="A340" s="51" t="s">
+        <v>827</v>
+      </c>
+      <c r="B340" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="C340" s="51" t="s">
+        <v>829</v>
+      </c>
+      <c r="D340" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E340" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F340" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" s="51" customFormat="1">
+      <c r="A341" s="51" t="s">
+        <v>830</v>
+      </c>
+      <c r="B341" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C341" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D341" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E341" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F341" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" s="51" customFormat="1">
+      <c r="A342" s="51" t="s">
+        <v>831</v>
+      </c>
+      <c r="B342" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C342" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="D342" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E342" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F342" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" s="51" customFormat="1">
+      <c r="A343" s="51" t="s">
+        <v>833</v>
+      </c>
+      <c r="B343" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C343" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D343" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E343" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F343" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="51" customFormat="1">
+      <c r="A344" s="51" t="s">
+        <v>834</v>
+      </c>
+      <c r="B344" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C344" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="51" customFormat="1">
+      <c r="A345" s="51" t="s">
+        <v>835</v>
+      </c>
+      <c r="B345" s="51" t="s">
+        <v>836</v>
+      </c>
+      <c r="C345" s="51" t="s">
+        <v>837</v>
+      </c>
+      <c r="D345" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E345" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F345" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="51" customFormat="1">
+      <c r="A346" s="51" t="s">
+        <v>838</v>
+      </c>
+      <c r="B346" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C346" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D346" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E346" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F346" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" s="51" customFormat="1">
+      <c r="A347" s="51" t="s">
+        <v>839</v>
+      </c>
+      <c r="B347" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C347" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D347" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E347" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F347" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="51" customFormat="1">
+      <c r="A348" s="51" t="s">
+        <v>840</v>
+      </c>
+      <c r="B348" s="51" t="s">
+        <v>841</v>
+      </c>
+      <c r="C348" s="51" t="s">
+        <v>842</v>
+      </c>
+      <c r="D348" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E348" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F348" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" s="51" customFormat="1">
+      <c r="A349" s="51" t="s">
+        <v>843</v>
+      </c>
+      <c r="B349" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C349" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D349" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E349" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F349" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" s="51" customFormat="1">
+      <c r="A350" s="51" t="s">
+        <v>844</v>
+      </c>
+      <c r="B350" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C350" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D350" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="E350" s="51" t="s">
+        <v>846</v>
+      </c>
+      <c r="F350" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="51" customFormat="1">
+      <c r="A351" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="B351" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C351" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D351" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="E351" s="51" t="s">
+        <v>849</v>
+      </c>
+      <c r="F351" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="51" customFormat="1">
+      <c r="A352" s="51" t="s">
+        <v>850</v>
+      </c>
+      <c r="B352" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C352" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D352" s="51" t="s">
+        <v>851</v>
+      </c>
+      <c r="E352" s="51" t="s">
+        <v>852</v>
+      </c>
+      <c r="F352" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" s="51" customFormat="1">
+      <c r="A353" s="51" t="s">
+        <v>853</v>
+      </c>
+      <c r="B353" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C353" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D353" s="51" t="s">
+        <v>854</v>
+      </c>
+      <c r="E353" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F353" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" s="51" customFormat="1">
+      <c r="A354" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="B354" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C354" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D354" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E354" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F354" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" s="51" customFormat="1">
+      <c r="A355" s="51" t="s">
+        <v>857</v>
+      </c>
+      <c r="B355" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="C355" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D355" s="51" t="s">
+        <v>767</v>
+      </c>
+      <c r="E355" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="F355" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" s="51" customFormat="1">
+      <c r="A356" s="51" t="s">
+        <v>858</v>
+      </c>
+      <c r="B356" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C356" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="F356" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" s="51" customFormat="1">
+      <c r="A357" s="51" t="s">
+        <v>859</v>
+      </c>
+      <c r="B357" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C357" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D357" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E357" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F357" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" s="51" customFormat="1">
+      <c r="A358" s="51" t="s">
+        <v>860</v>
+      </c>
+      <c r="B358" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C358" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D358" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E358" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F358" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" s="51" customFormat="1">
+      <c r="A359" s="51" t="s">
+        <v>861</v>
+      </c>
+      <c r="B359" s="51" t="s">
+        <v>661</v>
+      </c>
+      <c r="C359" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D359" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E359" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F359" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" s="51" customFormat="1">
+      <c r="A360" s="51" t="s">
+        <v>862</v>
+      </c>
+      <c r="B360" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C360" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="D360" s="51" t="s">
+        <v>863</v>
+      </c>
+      <c r="E360" s="51" t="s">
+        <v>864</v>
+      </c>
+      <c r="F360" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" s="51" customFormat="1">
+      <c r="A361" s="51" t="s">
+        <v>865</v>
+      </c>
+      <c r="B361" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C361" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D361" s="51" t="s">
+        <v>866</v>
+      </c>
+      <c r="E361" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="F361" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" s="51" customFormat="1">
+      <c r="A362" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="B362" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="C362" s="51" t="s">
+        <v>870</v>
+      </c>
+      <c r="D362" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="E362" s="51" t="s">
+        <v>872</v>
+      </c>
+      <c r="F362" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" s="51" customFormat="1">
+      <c r="A363" s="51" t="s">
+        <v>873</v>
+      </c>
+      <c r="B363" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C363" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D363" s="51" t="s">
+        <v>874</v>
+      </c>
+      <c r="E363" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="F363" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" s="51" customFormat="1">
+      <c r="A364" s="51" t="s">
+        <v>875</v>
+      </c>
+      <c r="B364" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C364" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D364" s="51" t="s">
+        <v>876</v>
+      </c>
+      <c r="E364" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="F364" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" s="51" customFormat="1">
+      <c r="A365" s="51" t="s">
+        <v>877</v>
+      </c>
+      <c r="B365" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C365" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D365" s="51" t="s">
+        <v>878</v>
+      </c>
+      <c r="E365" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="F365" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" s="51" customFormat="1">
+      <c r="A366" s="51" t="s">
+        <v>879</v>
+      </c>
+      <c r="B366" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C366" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D366" s="51" t="s">
+        <v>866</v>
+      </c>
+      <c r="E366" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="F366" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" s="51" customFormat="1">
+      <c r="A367" s="51" t="s">
+        <v>880</v>
+      </c>
+      <c r="B367" s="51" t="s">
+        <v>881</v>
+      </c>
+      <c r="C367" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="D367" s="51" t="s">
+        <v>883</v>
+      </c>
+      <c r="E367" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="F367" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" s="51" customFormat="1">
+      <c r="A368" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="B368" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C368" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D368" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="E368" s="51" t="s">
+        <v>864</v>
+      </c>
+      <c r="F368" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" s="51" customFormat="1">
+      <c r="A369" s="51" t="s">
+        <v>886</v>
+      </c>
+      <c r="B369" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C369" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D369" s="51" t="s">
+        <v>863</v>
+      </c>
+      <c r="E369" s="51" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" s="51" customFormat="1">
+      <c r="A370" s="51" t="s">
+        <v>887</v>
+      </c>
+      <c r="B370" s="51" t="s">
+        <v>777</v>
+      </c>
+      <c r="C370" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="D370" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="E370" s="51" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" s="51" customFormat="1">
+      <c r="A371" s="51" t="s">
+        <v>888</v>
+      </c>
+      <c r="B371" s="51" t="s">
+        <v>889</v>
+      </c>
+      <c r="C371" s="51" t="s">
+        <v>890</v>
+      </c>
+      <c r="D371" s="51" t="s">
+        <v>883</v>
+      </c>
+      <c r="E371" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" s="51" customFormat="1">
+      <c r="A372" s="51" t="s">
+        <v>891</v>
+      </c>
+      <c r="B372" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C372" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D372" s="51" t="s">
+        <v>874</v>
+      </c>
+      <c r="E372" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" s="51" customFormat="1">
+      <c r="A373" s="51" t="s">
+        <v>892</v>
+      </c>
+      <c r="B373" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C373" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D373" s="51" t="s">
+        <v>876</v>
+      </c>
+      <c r="E373" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" s="51" customFormat="1">
+      <c r="A374" s="51" t="s">
+        <v>893</v>
+      </c>
+      <c r="B374" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C374" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D374" s="51" t="s">
+        <v>866</v>
+      </c>
+      <c r="E374" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" s="51" customFormat="1">
+      <c r="A375" s="51" t="s">
+        <v>894</v>
+      </c>
+      <c r="B375" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C375" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D375" s="51" t="s">
+        <v>866</v>
+      </c>
+      <c r="E375" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" s="51" customFormat="1">
+      <c r="A376" s="51" t="s">
+        <v>895</v>
+      </c>
+      <c r="B376" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C376" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D376" s="51" t="s">
+        <v>878</v>
+      </c>
+      <c r="E376" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" s="51" customFormat="1">
+      <c r="A377" s="51" t="s">
+        <v>896</v>
+      </c>
+      <c r="B377" s="51" t="s">
+        <v>897</v>
+      </c>
+      <c r="C377" s="51" t="s">
+        <v>898</v>
+      </c>
+      <c r="D377" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="E377" s="51" t="s">
+        <v>872</v>
+      </c>
+      <c r="F377" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" s="51" customFormat="1">
+      <c r="A378" s="51" t="s">
+        <v>899</v>
+      </c>
+      <c r="B378" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C378" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D378" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="E378" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F378" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" s="51" customFormat="1">
+      <c r="A379" s="51" t="s">
+        <v>900</v>
+      </c>
+      <c r="B379" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C379" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D379" s="51" t="s">
+        <v>901</v>
+      </c>
+      <c r="E379" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F379" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" s="51" customFormat="1">
+      <c r="A380" s="51" t="s">
+        <v>902</v>
+      </c>
+      <c r="B380" s="51" t="s">
+        <v>903</v>
+      </c>
+      <c r="C380" s="51" t="s">
+        <v>904</v>
+      </c>
+      <c r="D380" s="51" t="s">
+        <v>901</v>
+      </c>
+      <c r="E380" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F380" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" s="51" customFormat="1">
+      <c r="A381" s="51" t="s">
+        <v>905</v>
+      </c>
+      <c r="B381" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C381" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D381" s="51" t="s">
+        <v>906</v>
+      </c>
+      <c r="E381" s="51" t="s">
+        <v>907</v>
+      </c>
+      <c r="F381" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" s="51" customFormat="1">
+      <c r="A382" s="51" t="s">
+        <v>908</v>
+      </c>
+      <c r="B382" s="51" t="s">
+        <v>903</v>
+      </c>
+      <c r="C382" s="51" t="s">
+        <v>904</v>
+      </c>
+      <c r="D382" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="E382" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F382" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" s="51" customFormat="1">
+      <c r="A383" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="B383" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C383" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D383" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="E383" s="51" t="s">
+        <v>911</v>
+      </c>
+      <c r="F383" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" s="51" customFormat="1">
+      <c r="A384" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="B384" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="C384" s="51" t="s">
+        <v>870</v>
+      </c>
+      <c r="D384" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="E384" s="51" t="s">
+        <v>872</v>
+      </c>
+      <c r="F384" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" s="51" customFormat="1">
+      <c r="A385" s="51" t="s">
+        <v>913</v>
+      </c>
+      <c r="B385" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C385" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="D385" s="51" t="s">
+        <v>914</v>
+      </c>
+      <c r="E385" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="F385" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" s="51" customFormat="1">
+      <c r="A386" s="51" t="s">
+        <v>916</v>
+      </c>
+      <c r="B386" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C386" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D386" s="51" t="s">
+        <v>917</v>
+      </c>
+      <c r="E386" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="F386" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" s="51" customFormat="1">
+      <c r="A387" s="51" t="s">
+        <v>918</v>
+      </c>
+      <c r="B387" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C387" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D387" s="51" t="s">
+        <v>914</v>
+      </c>
+      <c r="E387" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="F387" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" s="51" customFormat="1">
+      <c r="A388" s="51" t="s">
+        <v>919</v>
+      </c>
+      <c r="B388" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C388" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="D388" s="51" t="s">
+        <v>917</v>
+      </c>
+      <c r="E388" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="F388" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" s="51" customFormat="1">
+      <c r="A389" s="51" t="s">
+        <v>920</v>
+      </c>
+      <c r="B389" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C389" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D389" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E389" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F389" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" s="51" customFormat="1">
+      <c r="A390" s="51" t="s">
+        <v>922</v>
+      </c>
+      <c r="B390" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C390" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D390" s="51" t="s">
+        <v>751</v>
+      </c>
+      <c r="E390" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="F390" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" s="51" customFormat="1">
+      <c r="A391" s="51" t="s">
+        <v>923</v>
+      </c>
+      <c r="B391" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C391" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D391" s="51" t="s">
+        <v>924</v>
+      </c>
+      <c r="E391" s="51" t="s">
+        <v>925</v>
+      </c>
+      <c r="F391" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" s="51" customFormat="1">
+      <c r="A392" s="51" t="s">
+        <v>927</v>
+      </c>
+      <c r="B392" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C392" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D392" s="51" t="s">
+        <v>928</v>
+      </c>
+      <c r="E392" s="51" t="s">
+        <v>929</v>
+      </c>
+      <c r="F392" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" s="51" customFormat="1">
+      <c r="A393" s="51" t="s">
+        <v>930</v>
+      </c>
+      <c r="B393" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C393" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D393" s="51" t="s">
+        <v>931</v>
+      </c>
+      <c r="E393" s="51" t="s">
+        <v>932</v>
+      </c>
+      <c r="F393" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" s="51" customFormat="1">
+      <c r="A394" s="51" t="s">
+        <v>933</v>
+      </c>
+      <c r="B394" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C394" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D394" s="51" t="s">
+        <v>934</v>
+      </c>
+      <c r="E394" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="F394" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" s="51" customFormat="1">
+      <c r="A395" s="51" t="s">
+        <v>936</v>
+      </c>
+      <c r="B395" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C395" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D395" s="51" t="s">
+        <v>937</v>
+      </c>
+      <c r="E395" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="F395" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" s="51" customFormat="1">
+      <c r="A396" s="51" t="s">
+        <v>939</v>
+      </c>
+      <c r="B396" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C396" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D396" s="51" t="s">
+        <v>940</v>
+      </c>
+      <c r="E396" s="51" t="s">
+        <v>941</v>
+      </c>
+      <c r="F396" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" s="51" customFormat="1">
+      <c r="A397" s="51" t="s">
+        <v>942</v>
+      </c>
+      <c r="B397" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C397" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D397" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="E397" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="F397" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" s="51" customFormat="1">
+      <c r="A398" s="51" t="s">
+        <v>945</v>
+      </c>
+      <c r="B398" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C398" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D398" s="51" t="s">
+        <v>934</v>
+      </c>
+      <c r="E398" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="F398" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" s="51" customFormat="1">
+      <c r="A399" s="51" t="s">
+        <v>946</v>
+      </c>
+      <c r="B399" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C399" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D399" s="51" t="s">
+        <v>937</v>
+      </c>
+      <c r="E399" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="F399" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" s="51" customFormat="1">
+      <c r="A400" s="51" t="s">
+        <v>947</v>
+      </c>
+      <c r="B400" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C400" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D400" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="E400" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="F400" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" s="51" customFormat="1">
+      <c r="A401" s="51" t="s">
+        <v>948</v>
+      </c>
+      <c r="B401" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C401" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D401" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E401" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F401" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" s="51" customFormat="1">
+      <c r="A402" s="51" t="s">
+        <v>949</v>
+      </c>
+      <c r="B402" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C402" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D402" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="E402" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F402" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" s="51" customFormat="1">
+      <c r="A403" s="51" t="s">
+        <v>950</v>
+      </c>
+      <c r="B403" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C403" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D403" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E403" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F403" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" s="51" customFormat="1">
+      <c r="A404" s="51" t="s">
+        <v>951</v>
+      </c>
+      <c r="B404" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C404" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D404" s="51" t="s">
+        <v>952</v>
+      </c>
+      <c r="E404" s="51" t="s">
+        <v>953</v>
+      </c>
+      <c r="F404" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" s="51" customFormat="1">
+      <c r="A405" s="51" t="s">
+        <v>954</v>
+      </c>
+      <c r="B405" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C405" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D405" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E405" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F405" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" s="51" customFormat="1">
+      <c r="A406" s="51" t="s">
+        <v>955</v>
+      </c>
+      <c r="B406" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C406" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="D406" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E406" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F406" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" s="51" customFormat="1">
+      <c r="A407" s="51" t="s">
+        <v>956</v>
+      </c>
+      <c r="B407" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C407" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D407" s="51" t="s">
+        <v>957</v>
+      </c>
+      <c r="E407" s="51" t="s">
+        <v>958</v>
+      </c>
+      <c r="F407" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" s="51" customFormat="1">
+      <c r="A408" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="B408" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C408" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D408" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="E408" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F408" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" s="51" customFormat="1">
+      <c r="A409" s="51" t="s">
+        <v>961</v>
+      </c>
+      <c r="B409" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C409" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D409" s="51" t="s">
+        <v>962</v>
+      </c>
+      <c r="E409" s="51" t="s">
+        <v>963</v>
+      </c>
+      <c r="F409" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" s="51" customFormat="1">
+      <c r="A410" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="B410" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C410" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D410" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E410" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F410" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" s="51" customFormat="1">
+      <c r="A411" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="B411" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="C411" s="51" t="s">
+        <v>966</v>
+      </c>
+      <c r="D411" s="51" t="s">
+        <v>967</v>
+      </c>
+      <c r="E411" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="F411" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" s="51" customFormat="1">
+      <c r="A412" s="51" t="s">
+        <v>968</v>
+      </c>
+      <c r="B412" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="C412" s="51" t="s">
+        <v>966</v>
+      </c>
+      <c r="D412" s="51" t="s">
+        <v>969</v>
+      </c>
+      <c r="E412" s="51" t="s">
+        <v>970</v>
+      </c>
+      <c r="F412" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" s="51" customFormat="1">
+      <c r="A413" s="51" t="s">
+        <v>971</v>
+      </c>
+      <c r="B413" s="51" t="s">
+        <v>668</v>
+      </c>
+      <c r="C413" s="51" t="s">
+        <v>669</v>
+      </c>
+      <c r="D413" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E413" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F413" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" s="51" customFormat="1">
+      <c r="A414" s="51" t="s">
+        <v>972</v>
+      </c>
+      <c r="B414" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C414" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="D414" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E414" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F414" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" s="51" customFormat="1">
+      <c r="A415" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="B415" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C415" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D415" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="E415" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="F415" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" s="51" customFormat="1">
+      <c r="A416" s="51" t="s">
+        <v>976</v>
+      </c>
+      <c r="B416" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C416" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D416" s="51" t="s">
+        <v>977</v>
+      </c>
+      <c r="E416" s="51" t="s">
+        <v>978</v>
+      </c>
+      <c r="F416" s="51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" s="51" customFormat="1">
+      <c r="A417" s="51" t="s">
+        <v>979</v>
+      </c>
+      <c r="B417" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C417" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D417" s="51" t="s">
+        <v>980</v>
+      </c>
+      <c r="E417" s="51" t="s">
+        <v>981</v>
+      </c>
+      <c r="F417" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" s="51" customFormat="1">
+      <c r="A418" s="51" t="s">
+        <v>982</v>
+      </c>
+      <c r="B418" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C418" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D418" s="51" t="s">
+        <v>983</v>
+      </c>
+      <c r="E418" s="51" t="s">
+        <v>984</v>
+      </c>
+      <c r="F418" s="51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" s="51" customFormat="1">
+      <c r="A419" s="51" t="s">
+        <v>985</v>
+      </c>
+      <c r="B419" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C419" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D419" s="51" t="s">
+        <v>986</v>
+      </c>
+      <c r="E419" s="51" t="s">
+        <v>987</v>
+      </c>
+      <c r="F419" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" s="51" customFormat="1">
+      <c r="A420" s="51" t="s">
+        <v>988</v>
+      </c>
+      <c r="B420" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C420" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D420" s="51" t="s">
+        <v>989</v>
+      </c>
+      <c r="E420" s="51" t="s">
+        <v>990</v>
+      </c>
+      <c r="F420" s="51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" s="51" customFormat="1">
+      <c r="A421" s="51" t="s">
+        <v>991</v>
+      </c>
+      <c r="B421" s="51" t="s">
+        <v>992</v>
+      </c>
+      <c r="C421" s="51" t="s">
+        <v>993</v>
+      </c>
+      <c r="D421" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E421" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F421" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" s="51" customFormat="1">
+      <c r="A422" s="51" t="s">
+        <v>994</v>
+      </c>
+      <c r="B422" s="51" t="s">
+        <v>995</v>
+      </c>
+      <c r="C422" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="D422" s="51" t="s">
+        <v>997</v>
+      </c>
+      <c r="E422" s="51" t="s">
+        <v>998</v>
+      </c>
+      <c r="F422" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" s="51" customFormat="1">
+      <c r="A423" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="B423" s="51" t="s">
+        <v>995</v>
+      </c>
+      <c r="C423" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="D423" s="51" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E423" s="51" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F423" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" s="51" customFormat="1">
+      <c r="A424" s="51" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B424" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C424" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" s="51" customFormat="1">
+      <c r="A425" s="51" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B425" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C425" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D425" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E425" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F425" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" s="51" customFormat="1">
+      <c r="A426" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B426" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C426" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D426" s="51" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E426" s="51" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F426" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" s="51" customFormat="1">
+      <c r="A427" s="51" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B427" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C427" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D427" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E427" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F427" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" s="51" customFormat="1">
+      <c r="A428" s="51" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B428" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C428" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D428" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="E428" s="51" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F428" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" s="51" customFormat="1">
+      <c r="A429" s="51" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B429" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C429" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D429" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E429" s="51" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F429" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" s="51" customFormat="1">
+      <c r="A430" s="51" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B430" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C430" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D430" s="51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E430" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F430" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" s="51" customFormat="1">
+      <c r="A431" s="51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B431" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C431" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D431" s="51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E431" s="51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F431" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" s="51" customFormat="1">
+      <c r="A432" s="51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B432" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C432" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D432" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E432" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F432" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" s="51" customFormat="1">
+      <c r="A433" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B433" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C433" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" s="51" customFormat="1">
+      <c r="A434" s="51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B434" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C434" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D434" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="E434" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F434" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" s="51" customFormat="1">
+      <c r="A435" s="51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B435" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C435" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D435" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E435" s="51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F435" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" s="51" customFormat="1">
+      <c r="A436" s="51" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B436" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C436" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D436" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E436" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="F436" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" s="51" customFormat="1">
+      <c r="A437" s="51" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B437" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="C437" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="D437" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="E437" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F437" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" s="51" customFormat="1">
+      <c r="A438" s="51" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B438" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C438" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D438" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="E438" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F438" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" s="51" customFormat="1">
+      <c r="A439" s="51" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B439" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="C439" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="D439" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="E439" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F439" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" s="51" customFormat="1">
+      <c r="A440" s="51" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B440" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="C440" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="D440" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E440" s="51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F440" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" s="51" customFormat="1">
+      <c r="A441" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B441" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C441" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D441" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E441" s="51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F441" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" s="51" customFormat="1">
+      <c r="A442" s="51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B442" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="C442" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="D442" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E442" s="51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F442" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" s="51" customFormat="1">
+      <c r="A443" s="51" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B443" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="C443" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="D443" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E443" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="F443" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" s="51" customFormat="1">
+      <c r="A444" s="51" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B444" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="C444" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="D444" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E444" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="F444" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" s="51" customFormat="1">
+      <c r="A445" s="51" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B445" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C445" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="D445" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E445" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="F445" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" s="51" customFormat="1">
+      <c r="A446" s="51" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B446" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C446" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D446" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E446" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F446" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" s="51" customFormat="1">
+      <c r="A447" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B447" s="51" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C447" s="51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D447" s="51" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E447" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="F447" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" s="51" customFormat="1">
+      <c r="A448" s="51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B448" s="51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C448" s="51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D448" s="51" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E448" s="51" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F448" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" s="51" customFormat="1">
+      <c r="A449" s="51" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B449" s="51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C449" s="51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D449" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E449" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F449" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" s="51" customFormat="1">
+      <c r="A450" s="51" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B450" s="51" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C450" s="51" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D450" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E450" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F450" s="51" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" s="51" customFormat="1">
+      <c r="A451" s="51" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B451" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C451" s="51" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D451" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E451" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F451" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" s="51" customFormat="1">
+      <c r="A452" s="51" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B452" s="51" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C452" s="51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D452" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E452" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F452" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" s="51" customFormat="1">
+      <c r="A453" s="51" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B453" s="51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C453" s="51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D453" s="51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E453" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F453" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" s="51" customFormat="1">
+      <c r="A454" s="51" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B454" s="51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C454" s="51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D454" s="51" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E454" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F454" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" s="51" customFormat="1">
+      <c r="A455" s="51" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B455" s="51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C455" s="51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D455" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E455" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F455" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" s="51" customFormat="1">
+      <c r="A456" s="51" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B456" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="C456" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="D456" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E456" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F456" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" s="51" customFormat="1">
+      <c r="A457" s="51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B457" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C457" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D457" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E457" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F457" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" s="51" customFormat="1">
+      <c r="A458" s="51" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B458" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C458" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D458" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E458" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F458" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" s="51" customFormat="1">
+      <c r="A459" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B459" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C459" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D459" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E459" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F459" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" s="51" customFormat="1">
+      <c r="A460" s="51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B460" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="C460" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="D460" s="51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E460" s="51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F460" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" s="51" customFormat="1">
+      <c r="A461" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B461" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="C461" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="D461" s="51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E461" s="51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F461" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" s="51" customFormat="1">
+      <c r="A462" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B462" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C462" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="D462" s="51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E462" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F462" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" s="51" customFormat="1">
+      <c r="A463" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B463" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C463" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="D463" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E463" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F463" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" s="51" customFormat="1">
+      <c r="A464" s="51" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B464" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C464" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D464" s="51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E464" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F464" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" s="51" customFormat="1">
+      <c r="A465" s="51" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B465" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C465" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D465" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E465" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F465" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" s="51" customFormat="1">
+      <c r="A466" s="51" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B466" s="51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C466" s="51" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D466" s="51" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E466" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="F466" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" s="51" customFormat="1">
+      <c r="A467" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B467" s="51" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C467" s="51" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D467" s="51" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E467" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="F467" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" s="51" customFormat="1">
+      <c r="A468" s="51" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B468" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C468" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D468" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E468" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F468" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" s="51" customFormat="1">
+      <c r="A469" s="51" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B469" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D469" s="51" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E469" s="51" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F469" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" s="51" customFormat="1">
+      <c r="A470" s="51" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B470" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="C470" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="D470" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E470" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F470" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" s="51" customFormat="1">
+      <c r="A471" s="51" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B471" s="51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C471" s="51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D471" s="51" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E471" s="51" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F471" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" s="51" customFormat="1">
+      <c r="A472" s="51" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B472" s="51" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C472" s="51" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D472" s="51" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E472" s="51" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F472" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" s="51" customFormat="1">
+      <c r="A473" s="51" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B473" s="51" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C473" s="51" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D473" s="51" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E473" s="51" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F473" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" s="51" customFormat="1">
+      <c r="A474" s="51" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B474" s="51" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C474" s="51" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D474" s="51" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E474" s="51" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F474" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" s="51" customFormat="1">
+      <c r="A475" s="51" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B475" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="C475" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="D475" s="51" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E475" s="51" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F475" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" s="51" customFormat="1">
+      <c r="A476" s="51" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B476" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C476" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D476" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E476" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F476" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" s="51" customFormat="1">
+      <c r="A477" s="51" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B477" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="C477" s="51" t="s">
+        <v>870</v>
+      </c>
+      <c r="D477" s="51" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E477" s="51" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F477" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" s="51" customFormat="1">
+      <c r="A478" s="51" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B478" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C478" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="D478" s="51" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E478" s="51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F478" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" s="51" customFormat="1">
+      <c r="A479" s="51" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B479" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C479" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="D479" s="51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E479" s="51" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F479" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" s="51" customFormat="1">
+      <c r="A480" s="51" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B480" s="51" t="s">
+        <v>881</v>
+      </c>
+      <c r="C480" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="D480" s="51" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E480" s="51" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F480" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" s="51" customFormat="1">
+      <c r="A481" s="51" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B481" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C481" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D481" s="51" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E481" s="51" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F481" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" s="51" customFormat="1">
+      <c r="A482" s="51" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B482" s="51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C482" s="51" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D482" s="51" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E482" s="51" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F482" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" s="51" customFormat="1">
+      <c r="A483" s="51" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B483" s="51" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C483" s="51" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D483" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="E483" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="F483" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" s="51" customFormat="1">
+      <c r="A484" s="51" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B484" s="51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C484" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D484" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="E484" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="F484" s="51" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" s="51" customFormat="1">
+      <c r="A485" s="51" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B485" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C485" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D485" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E485" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F485" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" s="51" customFormat="1">
+      <c r="A486" s="51" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B486" s="51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C486" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D486" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E486" s="51" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F486" s="51" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" s="51" customFormat="1">
+      <c r="A487" s="51" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B487" s="51" t="s">
+        <v>881</v>
+      </c>
+      <c r="C487" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="D487" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E487" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F487" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" s="51" customFormat="1">
+      <c r="A488" s="51" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B488" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C488" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D488" s="51" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E488" s="51" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F488" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" s="51" customFormat="1">
+      <c r="A489" s="51" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B489" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C489" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D489" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E489" s="51" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F489" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" s="51" customFormat="1">
+      <c r="A490" s="51" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B490" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C490" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D490" s="51" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E490" s="51" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F490" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" s="51" customFormat="1">
+      <c r="A491" s="51" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B491" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C491" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="D491" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E491" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F491" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" s="51" customFormat="1">
+      <c r="A492" s="51" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B492" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C492" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D492" s="51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E492" s="51" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F492" s="51" t="s">
+        <v>524</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
